--- a/新建 Microsoft Excel 工作表2.xlsx
+++ b/新建 Microsoft Excel 工作表2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13905\Desktop\BLH-XYZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13905\Desktop\BLH-XYZ\BLH-XYZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EB0A2E-5B58-4259-A016-4F8E8D7C56BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8AFE5C8F-BFD6-4DEA-9376-C17332B83A56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12276" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -418,203 +418,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6.9191900000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1324.4123400000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>341.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>12354.654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>2345</v>
-      </c>
-      <c r="G13">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>4526</v>
-      </c>
-      <c r="G14">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>14325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>5345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <v>5345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>456234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
